--- a/x1.xlsx
+++ b/x1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Harshita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5D15EC-B71F-44FA-A1DB-5C68B10D60C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63DD40B-5D27-4286-9032-B1D6A6DC5852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,13 +342,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>